--- a/Documentation/SchemaDatabse.xlsx
+++ b/Documentation/SchemaDatabse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8555"/>
+    <workbookView windowWidth="11520" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>Table</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Nullable</t>
   </si>
   <si>
+    <t>Example</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
@@ -89,10 +92,73 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>role</t>
+    <t>role_users</t>
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>soal_pilgan</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>A,B, C, D</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>int(10)</t>
+  </si>
+  <si>
+    <t>level_id</t>
+  </si>
+  <si>
+    <t>is_gesture</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>level_name</t>
+  </si>
+  <si>
+    <t>point_value</t>
+  </si>
+  <si>
+    <t>point_users</t>
+  </si>
+  <si>
+    <t>user_point</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>kamus</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>word_name</t>
+  </si>
+  <si>
+    <t>source_url</t>
+  </si>
+  <si>
+    <t>kategori_kamus</t>
+  </si>
+  <si>
+    <t>category_name</t>
   </si>
 </sst>
 </file>
@@ -722,11 +788,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1268,135 +1331,368 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
+      <c r="A12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
